--- a/Data/ShiftSwaps_SK_REG_SmokeTest.xlsx
+++ b/Data/ShiftSwaps_SK_REG_SmokeTest.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D5340BA-A0A2-4642-8EBA-10B04D14FD87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{8EB6F5DF-2199-474D-A056-3636C0D1A967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0AD1570C-E90E-45E1-A4C9-251F4CAB954D}"/>
   <bookViews>
-    <workbookView xWindow="1068" yWindow="-108" windowWidth="22080" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -124,7 +124,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -135,8 +135,7 @@
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -465,22 +464,22 @@
   <dimension ref="A1:AS101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.109375" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.33203125" customWidth="1"/>
-    <col min="4" max="4" width="21.88671875" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" customWidth="1"/>
-    <col min="6" max="6" width="30.6640625" customWidth="1"/>
-    <col min="7" max="7" width="38.44140625" customWidth="1"/>
-    <col min="8" max="8" width="11.88671875" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="30.7109375" customWidth="1"/>
+    <col min="7" max="7" width="38.42578125" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" s="2" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:45" s="2" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -506,7 +505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:45" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:45" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10648995</v>
       </c>
@@ -522,32 +521,32 @@
       <c r="E2">
         <v>10648831</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>8</v>
       </c>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:45" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:45" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:45" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:45" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:45" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:45" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5"/>
     </row>
-    <row r="6" spans="1:45" s="5" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:45" s="5" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6"/>
       <c r="B6"/>
       <c r="C6"/>
@@ -594,289 +593,289 @@
       <c r="AR6"/>
       <c r="AS6"/>
     </row>
-    <row r="7" spans="1:45" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:45" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7"/>
     </row>
-    <row r="8" spans="1:45" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:45" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8"/>
     </row>
-    <row r="9" spans="1:45" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:45" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9"/>
     </row>
-    <row r="10" spans="1:45" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:45" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10"/>
     </row>
-    <row r="11" spans="1:45" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:45" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11"/>
     </row>
-    <row r="12" spans="1:45" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:45" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12"/>
     </row>
-    <row r="13" spans="1:45" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:45" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13"/>
     </row>
-    <row r="14" spans="1:45" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:45" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14"/>
     </row>
-    <row r="15" spans="1:45" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:45" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15"/>
     </row>
-    <row r="16" spans="1:45" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:45" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16"/>
     </row>
-    <row r="17" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17"/>
     </row>
-    <row r="18" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18"/>
     </row>
-    <row r="19" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19"/>
     </row>
-    <row r="20" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20"/>
     </row>
-    <row r="21" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21"/>
     </row>
-    <row r="22" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22"/>
     </row>
-    <row r="23" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23"/>
     </row>
-    <row r="24" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24"/>
     </row>
-    <row r="25" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25"/>
     </row>
-    <row r="26" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26"/>
     </row>
-    <row r="27" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27"/>
     </row>
-    <row r="28" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28"/>
     </row>
-    <row r="29" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29"/>
     </row>
-    <row r="30" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30"/>
     </row>
-    <row r="31" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31"/>
     </row>
-    <row r="32" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32"/>
     </row>
-    <row r="33" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33"/>
     </row>
-    <row r="34" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34"/>
     </row>
-    <row r="35" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35"/>
     </row>
-    <row r="36" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36"/>
     </row>
-    <row r="37" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37"/>
     </row>
-    <row r="38" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38"/>
     </row>
-    <row r="39" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39"/>
     </row>
-    <row r="40" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40"/>
     </row>
-    <row r="41" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41"/>
     </row>
-    <row r="42" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42"/>
     </row>
-    <row r="43" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43"/>
     </row>
-    <row r="44" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44"/>
     </row>
-    <row r="45" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45"/>
     </row>
-    <row r="46" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46"/>
     </row>
-    <row r="47" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47"/>
     </row>
-    <row r="48" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48"/>
     </row>
-    <row r="49" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49"/>
     </row>
-    <row r="50" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50"/>
     </row>
-    <row r="51" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51"/>
     </row>
-    <row r="52" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52"/>
     </row>
-    <row r="53" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53"/>
     </row>
-    <row r="54" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54"/>
     </row>
-    <row r="55" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55"/>
     </row>
-    <row r="56" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56"/>
     </row>
-    <row r="57" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57"/>
     </row>
-    <row r="58" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58"/>
     </row>
-    <row r="59" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59"/>
     </row>
-    <row r="60" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60"/>
     </row>
-    <row r="61" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61"/>
     </row>
-    <row r="62" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62"/>
     </row>
-    <row r="63" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63"/>
     </row>
-    <row r="64" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64"/>
     </row>
-    <row r="65" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65"/>
     </row>
-    <row r="66" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66"/>
     </row>
-    <row r="67" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67"/>
     </row>
-    <row r="68" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68"/>
     </row>
-    <row r="69" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69"/>
     </row>
-    <row r="70" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70"/>
     </row>
-    <row r="71" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71"/>
     </row>
-    <row r="72" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72"/>
     </row>
-    <row r="73" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73"/>
     </row>
-    <row r="74" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74"/>
     </row>
-    <row r="75" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75"/>
     </row>
-    <row r="76" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76"/>
     </row>
-    <row r="77" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77"/>
     </row>
-    <row r="78" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78"/>
     </row>
-    <row r="79" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79"/>
     </row>
-    <row r="80" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80"/>
     </row>
-    <row r="81" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81"/>
     </row>
-    <row r="82" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82"/>
     </row>
-    <row r="83" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83"/>
     </row>
-    <row r="84" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84"/>
     </row>
-    <row r="85" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85"/>
     </row>
-    <row r="86" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86"/>
     </row>
-    <row r="87" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87"/>
     </row>
-    <row r="88" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88"/>
     </row>
-    <row r="89" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89"/>
     </row>
-    <row r="90" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90"/>
     </row>
-    <row r="91" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91"/>
     </row>
-    <row r="92" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92"/>
     </row>
-    <row r="93" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93"/>
     </row>
-    <row r="94" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94"/>
     </row>
-    <row r="95" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95"/>
     </row>
-    <row r="96" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96"/>
     </row>
-    <row r="97" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97"/>
     </row>
-    <row r="98" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98"/>
     </row>
-    <row r="99" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99"/>
     </row>
-    <row r="100" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100"/>
     </row>
-    <row r="101" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="5"/>
       <c r="B101"/>
       <c r="D101" s="4"/>
